--- a/data/metadata/Informe-05-050302-A-TP.xlsx
+++ b/data/metadata/Informe-05-050302-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -52,10 +52,10 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:edad-grupos-quinquenales</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grupos-quinquenales</t>
   </si>
   <si>
     <t>dim</t>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-edad-grupos-quinquenales.xlsx</t>
   </si>
 </sst>
 </file>
@@ -208,13 +202,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -234,24 +228,18 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050302-A-TP.xlsx
+++ b/data/metadata/Informe-05-050302-A-TP.xlsx
@@ -11,69 +11,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>edad-grupos-quinquenales</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+  <si>
+    <t>Edad (grupos quinquenales)</t>
+  </si>
+  <si>
+    <t>Mes (código)</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Número de contratos</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grupos-quinquenales</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:edad-grupos-quinquenales</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -173,73 +170,68 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050302-A-TP.xlsx
+++ b/data/metadata/Informe-05-050302-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Edad (grupos quinquenales)</t>
   </si>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>Mes y año</t>
+  </si>
+  <si>
+    <t>edad-grupos-quinquenales</t>
+  </si>
+  <si>
+    <t>mes-codigo</t>
+  </si>
+  <si>
+    <t>ccaa-nombre</t>
+  </si>
+  <si>
+    <t>numero-de-contratos</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
   </si>
   <si>
     <t>iaest-measure:edad-grupos-quinquenales</t>
@@ -170,68 +194,94 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050302-A-TP.xlsx
+++ b/data/metadata/Informe-05-050302-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Edad (grupos quinquenales)</t>
   </si>
@@ -61,7 +61,7 @@
     <t>mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:edad-grupos-quinquenales</t>
+    <t>iaest-dimension:edad-grupos-quinquenales</t>
   </si>
   <si>
     <t>null</t>
@@ -73,28 +73,37 @@
     <t>iaest-measure:numero-de-contratos</t>
   </si>
   <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:mes-y-ano</t>
+    <t>iaest-dimension:sexo</t>
+  </si>
+  <si>
+    <t>iaest-dimension:mes-y-ano</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>xsd:string</t>
   </si>
   <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
+    <t>mapping-edad-grupos-quinquenales.xlsx</t>
+  </si>
+  <si>
+    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -240,16 +249,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -281,7 +290,15 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
